--- a/public/excelTemplate/冲刺值利润指标导入模板.xlsx
+++ b/public/excelTemplate/冲刺值利润指标导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\code\h5\boss\public\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,8 +90,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -229,13 +230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,28 +522,28 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -591,162 +592,162 @@
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/excelTemplate/冲刺值利润指标导入模板.xlsx
+++ b/public/excelTemplate/冲刺值利润指标导入模板.xlsx
@@ -230,13 +230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,22 +528,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -592,162 +592,162 @@
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
